--- a/Word do an/Quyet-dinh-giao-do-an-tot-nghiep-khoa-67-dot02-HTTT.xlsx
+++ b/Word do an/Quyet-dinh-giao-do-an-tot-nghiep-khoa-67-dot02-HTTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kench\Desktop\doantotnghiep\Word do an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A8C96-A965-44AD-8D64-89D8D5B96B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C40C7-8B50-4542-9AAC-73743C55EDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>Cam kết</t>
   </si>
@@ -318,9 +318,6 @@
   </si>
   <si>
     <t>Làm lại</t>
-  </si>
-  <si>
-    <t>66DCHT21931</t>
   </si>
   <si>
     <t>PHAN KHÁNH LINH</t>
@@ -749,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -772,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -786,7 +783,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>93</v>
@@ -830,10 +827,10 @@
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>1</v>
